--- a/ISIP/Course Enrollment Artifacts.xlsx
+++ b/ISIP/Course Enrollment Artifacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\course-enroll-microservices\ISIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120C890B-D105-4C9B-95DD-462D612B58FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C78B41C-EB16-4A65-984D-6A3BE52D828D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43E25245-BAFA-42B3-B701-EA2BA1ACCE5B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="102">
   <si>
     <t>Use Case</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Course Enrollment Model</t>
+  </si>
+  <si>
+    <t>Un-Enroll</t>
   </si>
 </sst>
 </file>
@@ -737,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A24C7C5-D2FA-42B7-BE93-A43F75435728}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,6 +2066,261 @@
         <v>92</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E77" xr:uid="{2A24C7C5-D2FA-42B7-BE93-A43F75435728}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
